--- a/02-Avancado1-Funcoes/09-PlanilhasExtras/Aula-36-ExcelAvancado1-Hostel.xlsx
+++ b/02-Avancado1-Funcoes/09-PlanilhasExtras/Aula-36-ExcelAvancado1-Hostel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaamonde\Downloads\PlanilhasZeradasNovas-20190522T132214Z-001\PlanilhasZeradasNovas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Downloads\msexcel\02-Avancado1-Funcoes\09-PlanilhasExtras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6419D7E4-0CF8-4B57-AF16-2E1EEB2E1CA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4E3253-A9D3-44B3-8610-E2DA60E3869E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha Original" sheetId="1" r:id="rId1"/>
@@ -19,118 +19,85 @@
     <sheet name="Configurações" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>vaamonde</author>
-    <author>Robson Vaamonde</author>
+    <author>tc={98507568-5FCC-4602-A98F-8B17E86A73BC}</author>
+    <author>tc={DA89FE3C-4702-4AF4-BB72-93FB8F2F876E}</author>
+    <author>tc={B5A7698A-81F6-4AEB-A72F-5D2C72FB70A7}</author>
+    <author>tc={08652996-53EE-48EB-8534-6DAAD3389B7A}</author>
+    <author>tc={7277C9E8-118B-45FE-8399-40620BAC2640}</author>
+    <author>tc={823F576D-73F4-490E-8974-F6CA8E5ADE9B}</author>
+    <author>tc={4F9F027C-192A-4510-AF29-B6BE01B49A60}</author>
+    <author>tc={36755779-B274-49BE-82D1-34CC5493D16B}</author>
   </authors>
   <commentList>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{98507568-5FCC-4602-A98F-8B17E86A73BC}">
       <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>vaamonde:
-Utilizar a função do Excel: =PRI.MAIÚSCULA()</t>
-        </r>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Utilizar a Função =PRI.MAIÚSCULA()</t>
       </text>
     </comment>
-    <comment ref="C8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="C13" authorId="1" shapeId="0" xr:uid="{DA89FE3C-4702-4AF4-BB72-93FB8F2F876E}">
       <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Robson Vaamonde:
-Utilizar a Funções =SE() e =NÚM.CARACT()</t>
-        </r>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Utilizar as Funções =SE() e =NÚM.CARACT()</t>
       </text>
     </comment>
-    <comment ref="D8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="D13" authorId="2" shapeId="0" xr:uid="{B5A7698A-81F6-4AEB-A72F-5D2C72FB70A7}">
       <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Robson Vaamonde:
-Utilizar a Função =MINÚSCULA()</t>
-        </r>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Utilizar a Função =MINÚSCULA()</t>
       </text>
     </comment>
-    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="G13" authorId="3" shapeId="0" xr:uid="{08652996-53EE-48EB-8534-6DAAD3389B7A}">
       <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>vaamonde:
-Utilizar as Funções do Excel: =MAIÚSCULA() e =ARRUMAR()</t>
-        </r>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Utilizar as Funções =MAIÚSCULA() e =ARRUMAR()</t>
       </text>
     </comment>
-    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="H13" authorId="4" shapeId="0" xr:uid="{7277C9E8-118B-45FE-8399-40620BAC2640}">
       <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>vaamonde:
-Utilizar a função do Excel: =PROCV()</t>
-        </r>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Utilizar a Função =PROCV()</t>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="I13" authorId="5" shapeId="0" xr:uid="{823F576D-73F4-490E-8974-F6CA8E5ADE9B}">
       <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>vaamonde:
-Utilizar a função do Excel: =SOMA()</t>
-        </r>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Utilizar a Função =SOMA()</t>
       </text>
     </comment>
-    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="J13" authorId="6" shapeId="0" xr:uid="{4F9F027C-192A-4510-AF29-B6BE01B49A60}">
       <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>vaamonde:
-Utilizar a função do Excel: =MAIÚSCULA()</t>
-        </r>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Utilizar a Função =MAIÚSCULA()</t>
       </text>
     </comment>
-    <comment ref="L8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="L13" authorId="7" shapeId="0" xr:uid="{36755779-B274-49BE-82D1-34CC5493D16B}">
       <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>vaamonde:
-Utilizar a função =SOMA()</t>
-        </r>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Utilizar a Função =SOMA()</t>
       </text>
     </comment>
   </commentList>
@@ -140,86 +107,60 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>vaamonde</author>
-    <author>Robson Vaamonde</author>
+    <author>tc={3AD26AD0-A949-416E-834C-EA3BF4ADF58B}</author>
+    <author>tc={D840B656-6464-41B9-AB76-2A61A2E60D99}</author>
+    <author>tc={AE0EE29C-2311-4967-8AAE-69C93B420BD4}</author>
+    <author>tc={29BA2B11-8B07-491F-92C5-1B583E6DFD6F}</author>
+    <author>tc={55E7189B-B954-44D8-BD50-C3D540088791}</author>
+    <author>tc={7A5D2BBA-1AAE-4207-8C5A-462FC3637DDD}</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{3AD26AD0-A949-416E-834C-EA3BF4ADF58B}">
       <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>vaamonde:
-Utilizar a Função =CONT.VALORES()</t>
-        </r>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Utilizar a Função =CONT.VALORES()</t>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="B10" authorId="1" shapeId="0" xr:uid="{D840B656-6464-41B9-AB76-2A61A2E60D99}">
       <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>vaamonde:
-Utilizar a Função =CONT.VALORES()</t>
-        </r>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Utilizar a Função =CONT.VALORES()</t>
       </text>
     </comment>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="B11" authorId="2" shapeId="0" xr:uid="{AE0EE29C-2311-4967-8AAE-69C93B420BD4}">
       <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>vaamonde:
-Utilizar a Função =CONTAR.VAZIO()</t>
-        </r>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Utilizar a Função =CONT.VAZIO()</t>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="B12" authorId="3" shapeId="0" xr:uid="{29BA2B11-8B07-491F-92C5-1B583E6DFD6F}">
       <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>vaamonde:
-Utilizar a Função =SOMA()</t>
-        </r>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Utilizar a Função =SOMA()</t>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="B13" authorId="4" shapeId="0" xr:uid="{55E7189B-B954-44D8-BD50-C3D540088791}">
       <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>vaamonde:
-Utilizar a Função =SOMA()</t>
-        </r>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Utilizar a Função =SOMA()</t>
       </text>
     </comment>
-    <comment ref="C13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="C16" authorId="5" shapeId="0" xr:uid="{7A5D2BBA-1AAE-4207-8C5A-462FC3637DDD}">
       <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="SimSun"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Robson Vaamonde:
-Utilizar a Função =CONT.SE()</t>
-        </r>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Utilizar a Função =CONT.SE()</t>
       </text>
     </comment>
   </commentList>
@@ -227,15 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
-  <si>
-    <t>Prof. Robson Vaamonde
-http://facebook.com/ProcedimentosEmTI
-http://youtube.com/BoraParaPratica</t>
-  </si>
-  <si>
-    <t>Hostel AulaEAD</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
   <si>
     <t>Hóspede</t>
   </si>
@@ -417,8 +350,151 @@
     <t>Número Caractere</t>
   </si>
   <si>
-    <t>Cálculo Número Caractere: SE Hóspedes &gt;= 25 caracteres = Reduzir o Nome SENÃO Nome OK
-Cálculo Valor da Diária: SE Acomodação = "" = Sem Diária SENÃO Procurar na Tabela de Diárias</t>
+    <r>
+      <t xml:space="preserve">Robson Vaamonde
+LinkedIn: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.linkedin.com/in/robson-vaamonde-0b029028/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color indexed="63"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Instagram: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.instagram.com/procedimentoem/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color indexed="63"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+YouTUBE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.youtube.com/boraparapratica</t>
+    </r>
+  </si>
+  <si>
+    <t>VavaHostel</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cálculo Número Caractere: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hóspedes &gt;= 25 caracteres = Reduzir o Nome </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SENÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Nome OK
+Cálculo Valor da Diária: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Acomodação = "" = Sem Diária </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SENÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Procurar na Tabela de Diárias</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -426,10 +502,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,13 +558,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="63"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -571,8 +676,8 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,7 +687,7 @@
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -602,7 +707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -617,7 +722,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -629,11 +739,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -644,17 +751,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -686,22 +787,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>20320</xdr:colOff>
+      <xdr:colOff>1996</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>20955</xdr:rowOff>
+      <xdr:rowOff>2953</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1109345</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1665513</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4559</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1" descr="unnamed">
+        <xdr:cNvPr id="4" name="Imagem 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B38D9E-033F-4823-BC03-4797CE711D84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -710,20 +811,12 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="100000"/>
-              </a:srgbClr>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="100000"/>
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
         </a:blip>
         <a:stretch>
           <a:fillRect/>
@@ -731,8 +824,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="877570" y="20955"/>
-          <a:ext cx="1089025" cy="626745"/>
+          <a:off x="622482" y="177124"/>
+          <a:ext cx="1663517" cy="872464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -743,23 +836,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1482725</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>707572</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>170542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>25748</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>172279</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2" descr="unnamed">
+        <xdr:cNvPr id="5" name="Imagem 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71643EBA-5DAC-4A2F-80C8-6841139BF27A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -768,20 +861,12 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="100000"/>
-              </a:srgbClr>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="100000"/>
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
         </a:blip>
         <a:stretch>
           <a:fillRect/>
@@ -789,8 +874,58 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15432405" y="9525"/>
-          <a:ext cx="1292225" cy="625475"/>
+          <a:off x="9742715" y="170542"/>
+          <a:ext cx="3062862" cy="872594"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>124692</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>366101</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>138463</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6759A0DA-B592-4D88-801D-470B9F1C2C5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12302837" y="0"/>
+          <a:ext cx="4605591" cy="3671372"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -807,22 +942,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>20320</xdr:colOff>
+      <xdr:colOff>1997</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>20955</xdr:rowOff>
+      <xdr:rowOff>2953</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1109345</xdr:colOff>
+      <xdr:colOff>1697529</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1" descr="unnamed">
+        <xdr:cNvPr id="4" name="Imagem 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{245FEDC4-5399-4701-A295-170B8E59E1DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -831,20 +966,12 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="100000"/>
-              </a:srgbClr>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="100000"/>
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
         </a:blip>
         <a:stretch>
           <a:fillRect/>
@@ -852,8 +979,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="877570" y="20955"/>
-          <a:ext cx="1089025" cy="626745"/>
+          <a:off x="622483" y="177124"/>
+          <a:ext cx="1695532" cy="857019"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -864,23 +991,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1047115</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>969466</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>635</xdr:rowOff>
+      <xdr:rowOff>7256</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>150495</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>32279</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2" descr="unnamed">
+        <xdr:cNvPr id="5" name="Imagem 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20A59CC5-BB6D-42AD-BAD4-108D2403B316}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -889,20 +1016,12 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="100000"/>
-              </a:srgbClr>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="100000"/>
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
         </a:blip>
         <a:stretch>
           <a:fillRect/>
@@ -910,8 +1029,58 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15828645" y="635"/>
-          <a:ext cx="1864360" cy="635635"/>
+          <a:off x="10374723" y="181427"/>
+          <a:ext cx="3112299" cy="852716"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>393809</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>138463</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{087B85C9-496E-4CC1-BDFA-E422D127F29D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12967854" y="0"/>
+          <a:ext cx="4605591" cy="3671372"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -928,22 +1097,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>25067</xdr:colOff>
+      <xdr:colOff>1997</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>2953</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>772026</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>185273</xdr:rowOff>
+      <xdr:colOff>1784161</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3" descr="unnamed">
+        <xdr:cNvPr id="2" name="Imagem 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC8F9127-3B13-4835-B1EB-19C3E4E01E49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -952,20 +1121,12 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="100000"/>
-              </a:srgbClr>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="100000"/>
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
         </a:blip>
         <a:stretch>
           <a:fillRect/>
@@ -973,8 +1134,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="626646" y="190500"/>
-          <a:ext cx="746959" cy="566273"/>
+          <a:off x="619217" y="178213"/>
+          <a:ext cx="1782164" cy="873347"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -985,23 +1146,178 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>279588</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1198960</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>10027</xdr:rowOff>
+      <xdr:rowOff>7256</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>6085</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>5013</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>61034</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagem 4" descr="unnamed">
+        <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ED8249A-63AE-4807-A862-615021917FE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1816180" y="182516"/>
+          <a:ext cx="3289294" cy="876664"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342263</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>37162</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C2A1784-2E3A-4F7C-A1E7-2A327F601364}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4518660" y="0"/>
+          <a:ext cx="4571363" cy="3679522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190256</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>11917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>833717</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9603</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E8D1C91-A7E0-4ADE-A263-DA4C4415BBF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="808821" y="191211"/>
+          <a:ext cx="1853696" cy="894157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>143435</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>384845</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57781</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AD0DDFE-71C1-48E9-91E4-0B1170492A9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1011,19 +1327,11 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="100000"/>
-              </a:srgbClr>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="100000"/>
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
         </a:blip>
         <a:stretch>
           <a:fillRect/>
@@ -1031,8 +1339,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3528114" y="200527"/>
-          <a:ext cx="784274" cy="566486"/>
+          <a:off x="3065929" y="0"/>
+          <a:ext cx="4571363" cy="3679522"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1042,6 +1350,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="ROBSON SILVA VAAMONDE" id="{2C89507B-8CDA-4C6D-B491-73923BDEF9B2}" userId="S::robson.svaamonde@senacsp.edu.br::4d4f56a5-23e9-4d23-b645-e8636afaef3c" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1329,369 +1643,444 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B13" dT="2025-01-22T22:01:40.85" personId="{2C89507B-8CDA-4C6D-B491-73923BDEF9B2}" id="{98507568-5FCC-4602-A98F-8B17E86A73BC}">
+    <text>Utilizar a Função =PRI.MAIÚSCULA()</text>
+  </threadedComment>
+  <threadedComment ref="C13" dT="2025-01-22T22:02:14.32" personId="{2C89507B-8CDA-4C6D-B491-73923BDEF9B2}" id="{DA89FE3C-4702-4AF4-BB72-93FB8F2F876E}">
+    <text>Utilizar as Funções =SE() e =NÚM.CARACT()</text>
+  </threadedComment>
+  <threadedComment ref="D13" dT="2025-01-22T22:02:57.54" personId="{2C89507B-8CDA-4C6D-B491-73923BDEF9B2}" id="{B5A7698A-81F6-4AEB-A72F-5D2C72FB70A7}">
+    <text>Utilizar a Função =MINÚSCULA()</text>
+  </threadedComment>
+  <threadedComment ref="G13" dT="2025-01-22T22:03:22.59" personId="{2C89507B-8CDA-4C6D-B491-73923BDEF9B2}" id="{08652996-53EE-48EB-8534-6DAAD3389B7A}">
+    <text>Utilizar as Funções =MAIÚSCULA() e =ARRUMAR()</text>
+  </threadedComment>
+  <threadedComment ref="H13" dT="2025-01-22T22:03:52.02" personId="{2C89507B-8CDA-4C6D-B491-73923BDEF9B2}" id="{7277C9E8-118B-45FE-8399-40620BAC2640}">
+    <text>Utilizar a Função =PROCV()</text>
+  </threadedComment>
+  <threadedComment ref="I13" dT="2025-01-22T22:04:19.51" personId="{2C89507B-8CDA-4C6D-B491-73923BDEF9B2}" id="{823F576D-73F4-490E-8974-F6CA8E5ADE9B}">
+    <text>Utilizar a Função =SOMA()</text>
+  </threadedComment>
+  <threadedComment ref="J13" dT="2025-01-22T22:04:44.60" personId="{2C89507B-8CDA-4C6D-B491-73923BDEF9B2}" id="{4F9F027C-192A-4510-AF29-B6BE01B49A60}">
+    <text>Utilizar a Função =MAIÚSCULA()</text>
+  </threadedComment>
+  <threadedComment ref="L13" dT="2025-01-22T22:05:07.87" personId="{2C89507B-8CDA-4C6D-B491-73923BDEF9B2}" id="{36755779-B274-49BE-82D1-34CC5493D16B}">
+    <text>Utilizar a Função =SOMA()</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B9" dT="2025-01-22T22:06:54.51" personId="{2C89507B-8CDA-4C6D-B491-73923BDEF9B2}" id="{3AD26AD0-A949-416E-834C-EA3BF4ADF58B}">
+    <text>Utilizar a Função =CONT.VALORES()</text>
+  </threadedComment>
+  <threadedComment ref="B10" dT="2025-01-22T22:07:04.46" personId="{2C89507B-8CDA-4C6D-B491-73923BDEF9B2}" id="{D840B656-6464-41B9-AB76-2A61A2E60D99}">
+    <text>Utilizar a Função =CONT.VALORES()</text>
+  </threadedComment>
+  <threadedComment ref="B11" dT="2025-01-22T22:07:25.51" personId="{2C89507B-8CDA-4C6D-B491-73923BDEF9B2}" id="{AE0EE29C-2311-4967-8AAE-69C93B420BD4}">
+    <text>Utilizar a Função =CONT.VAZIO()</text>
+  </threadedComment>
+  <threadedComment ref="B12" dT="2025-01-22T22:07:38.46" personId="{2C89507B-8CDA-4C6D-B491-73923BDEF9B2}" id="{29BA2B11-8B07-491F-92C5-1B583E6DFD6F}">
+    <text>Utilizar a Função =SOMA()</text>
+  </threadedComment>
+  <threadedComment ref="B13" dT="2025-01-22T22:07:48.93" personId="{2C89507B-8CDA-4C6D-B491-73923BDEF9B2}" id="{55E7189B-B954-44D8-BD50-C3D540088791}">
+    <text>Utilizar a Função =SOMA()</text>
+  </threadedComment>
+  <threadedComment ref="C16" dT="2025-01-22T22:08:11.46" personId="{2C89507B-8CDA-4C6D-B491-73923BDEF9B2}" id="{7A5D2BBA-1AAE-4207-8C5A-462FC3637DDD}">
+    <text>Utilizar a Função =CONT.SE()</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
-    <col min="4" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" customWidth="1"/>
+    <col min="4" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
     <col min="7" max="7" width="12" style="12" customWidth="1"/>
-    <col min="8" max="8" width="9"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="12" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="12" customWidth="1"/>
-    <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="9" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" hidden="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="12" customWidth="1"/>
+    <col min="12" max="19" width="9" customWidth="1"/>
+    <col min="20" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11"/>
-    <row r="2" spans="2:11">
-      <c r="B2" s="23" t="s">
+    <row r="1" spans="1:11" s="21" customFormat="1" ht="13.8">
+      <c r="A1" s="20"/>
+    </row>
+    <row r="2" spans="1:11" s="21" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B2" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+    </row>
+    <row r="3" spans="1:11" s="21" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+    </row>
+    <row r="4" spans="1:11" s="21" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+    </row>
+    <row r="5" spans="1:11" s="21" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+    </row>
+    <row r="6" spans="1:11" s="21" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" spans="1:11" s="21" customFormat="1" ht="16.8">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:11" ht="21">
+      <c r="B8" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="25"/>
+    </row>
+    <row r="9" spans="1:11"/>
+    <row r="10" spans="1:11" ht="28.8">
+      <c r="B10" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-    </row>
-    <row r="6" spans="2:11" ht="21">
-      <c r="B6" s="20" t="s">
+      <c r="C10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22"/>
-    </row>
-    <row r="7" spans="2:11"/>
-    <row r="8" spans="2:11" ht="30">
-      <c r="B8" s="18" t="s">
+      <c r="D10" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="E10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="G10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="H10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="I10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="J10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="K10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="19" t="s">
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="C11" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="1" t="s">
+      <c r="D11" s="13">
+        <v>43477</v>
+      </c>
+      <c r="E11" s="13">
+        <v>43480</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="13">
-        <v>43477</v>
-      </c>
-      <c r="E9" s="13">
-        <v>43480</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="2">
-        <v>45</v>
-      </c>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="13">
-        <v>43478</v>
-      </c>
-      <c r="E10" s="13">
-        <v>43487</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="2">
-        <v>60</v>
-      </c>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="13">
-        <v>43480</v>
-      </c>
-      <c r="E11" s="13">
-        <v>43485</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="2">
+        <v>45</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="2">
-        <v>123.89</v>
-      </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>23</v>
-      </c>
       <c r="D12" s="13">
-        <v>43480</v>
+        <v>43478</v>
       </c>
       <c r="E12" s="13">
-        <v>43486</v>
+        <v>43487</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="2"/>
+      <c r="I12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="2">
+        <v>60</v>
+      </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="1:11">
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D13" s="13">
+        <v>43480</v>
+      </c>
+      <c r="E13" s="13">
         <v>43485</v>
       </c>
-      <c r="E13" s="13">
-        <v>43495</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="J13" s="2">
-        <v>340</v>
+        <v>123.89</v>
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="1:11">
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D14" s="13">
+        <v>43480</v>
+      </c>
+      <c r="E14" s="13">
         <v>43486</v>
       </c>
-      <c r="E14" s="13">
-        <v>43500</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="2">
-        <v>240</v>
-      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="1:11">
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D15" s="13">
-        <v>43490</v>
+        <v>43485</v>
       </c>
       <c r="E15" s="13">
-        <v>43494</v>
+        <v>43495</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="2"/>
+      <c r="I15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="2">
+        <v>340</v>
+      </c>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="1:11">
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D16" s="13">
-        <v>43491</v>
+        <v>43486</v>
       </c>
       <c r="E16" s="13">
-        <v>43492</v>
+        <v>43500</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="J16" s="2">
-        <v>780</v>
+        <v>240</v>
       </c>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D17" s="13">
-        <v>43492</v>
+        <v>43490</v>
       </c>
       <c r="E17" s="13">
-        <v>43496</v>
+        <v>43494</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="2">
+      <c r="I17" s="1"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="13">
+        <v>43491</v>
+      </c>
+      <c r="E18" s="13">
+        <v>43492</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="2">
+        <v>780</v>
+      </c>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="13">
+        <v>43492</v>
+      </c>
+      <c r="E19" s="13">
+        <v>43496</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="2">
         <v>76</v>
       </c>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="2:11"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="2:11"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B2:K5"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B2:K6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C10" r:id="rId2" tooltip="mailto:RAMOS@AULAEAD.COM" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C11" r:id="rId3" tooltip="mailto:ASSIS@AULAEAD.COM" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C12" r:id="rId4" tooltip="mailto:SAMPAIO@AULAEAD.COM" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C13" r:id="rId5" tooltip="mailto:FERRAZ@AULAEAD.COM" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C14" r:id="rId6" tooltip="mailto:ABREU@AULAEAD.COM" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C15" r:id="rId7" tooltip="mailto:COSTA@AULAEAD.COM" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C16" r:id="rId8" tooltip="mailto:JOSESILVA@AULAEAD.COM" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C17" r:id="rId9" tooltip="mailto:MARIASOUZA@AULAEAD.COM" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C12" r:id="rId2" tooltip="mailto:RAMOS@AULAEAD.COM" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C13" r:id="rId3" tooltip="mailto:ASSIS@AULAEAD.COM" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C14" r:id="rId4" tooltip="mailto:SAMPAIO@AULAEAD.COM" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C15" r:id="rId5" tooltip="mailto:FERRAZ@AULAEAD.COM" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C16" r:id="rId6" tooltip="mailto:ABREU@AULAEAD.COM" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C17" r:id="rId7" tooltip="mailto:COSTA@AULAEAD.COM" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C18" r:id="rId8" tooltip="mailto:JOSESILVA@AULAEAD.COM" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C19" r:id="rId9" tooltip="mailto:MARIASOUZA@AULAEAD.COM" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1701,87 +2090,86 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
-    <col min="5" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" customWidth="1"/>
+    <col min="5" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
-    <col min="13" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="9" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" hidden="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="13" max="20" width="9" customWidth="1"/>
+    <col min="21" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12"/>
-    <row r="2" spans="2:12">
-      <c r="B2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-    </row>
-    <row r="6" spans="2:12" ht="21">
-      <c r="B6" s="25" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" spans="1:12" s="21" customFormat="1" ht="13.8">
+      <c r="A1" s="20"/>
+    </row>
+    <row r="2" spans="1:12" s="21" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B2" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+    </row>
+    <row r="3" spans="1:12" s="21" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+    </row>
+    <row r="4" spans="1:12" s="21" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+    </row>
+    <row r="5" spans="1:12" s="21" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+    </row>
+    <row r="6" spans="1:12" s="21" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B6" s="26"/>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
@@ -1791,113 +2179,102 @@
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
-      <c r="L6" s="27"/>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="H7" s="12"/>
-      <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="2:12" ht="30">
-      <c r="B8" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="L6" s="26"/>
+    </row>
+    <row r="7" spans="1:12" s="21" customFormat="1" ht="16.8">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+    </row>
+    <row r="10" spans="1:12"/>
+    <row r="11" spans="1:12" ht="21">
+      <c r="B11" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="29"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="H12" s="12"/>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="28.8">
+      <c r="B13" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="G13" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="H13" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="19" t="s">
+      <c r="I13" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="18" t="s">
+      <c r="K13" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="2:12">
+    </row>
+    <row r="14" spans="1:12">
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
       <c r="D14" s="9"/>
@@ -1910,7 +2287,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="1:12">
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
       <c r="D15" s="9"/>
@@ -1923,7 +2300,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="1:12">
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
@@ -1950,49 +2327,84 @@
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="C18" s="11"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="11"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-    </row>
-    <row r="21" spans="2:12"/>
-    <row r="22" spans="2:12" hidden="1"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="C23" s="11"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="11"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B2:L5"/>
-    <mergeCell ref="B19:L20"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="B8:L9"/>
+    <mergeCell ref="B2:L6"/>
   </mergeCells>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.31388888888888899" footer="0.31388888888888899"/>
   <drawing r:id="rId1"/>
@@ -2002,127 +2414,137 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="9" hidden="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" hidden="1"/>
+    <col min="2" max="2" width="39.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="11" width="9" customWidth="1"/>
+    <col min="12" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3"/>
-    <row r="2" spans="2:3">
-      <c r="B2" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="31"/>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="29" t="s">
+    <row r="1" spans="1:3" s="21" customFormat="1" ht="13.8">
+      <c r="A1" s="20"/>
+    </row>
+    <row r="2" spans="1:3" s="21" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+    </row>
+    <row r="3" spans="1:3" s="21" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+    </row>
+    <row r="4" spans="1:3" s="21" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+    </row>
+    <row r="5" spans="1:3" s="21" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+    </row>
+    <row r="6" spans="1:3" s="21" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+    </row>
+    <row r="7" spans="1:3" s="21" customFormat="1" ht="16.8">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="31"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="29"/>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="3" t="s">
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="3" t="s">
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="3" t="s">
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="3" t="s">
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="31"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="3" t="s">
+      <c r="C16" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="29"/>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="7"/>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C17" s="7"/>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C18" s="7"/>
     </row>
     <row r="19" spans="2:3">
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="2:3"/>
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="C22" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B2:C4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B2:C6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2133,80 +2555,113 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView zoomScale="310" zoomScaleNormal="310" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="9" hidden="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" hidden="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="11" width="9" customWidth="1"/>
+    <col min="12" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3"/>
-    <row r="2" spans="2:3">
-      <c r="B2" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="29"/>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="17" t="s">
+    <row r="1" spans="1:3" s="21" customFormat="1" ht="13.8">
+      <c r="A1" s="20"/>
+    </row>
+    <row r="2" spans="1:3" s="21" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+    </row>
+    <row r="3" spans="1:3" s="21" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+    </row>
+    <row r="4" spans="1:3" s="21" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+    </row>
+    <row r="5" spans="1:3" s="21" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+    </row>
+    <row r="6" spans="1:3" s="21" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+    </row>
+    <row r="7" spans="1:3" s="21" customFormat="1" ht="16.8">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="31"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="1" t="s">
+      <c r="C10" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="2">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="1" t="s">
+      <c r="C12" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="1" t="s">
+      <c r="C13" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="2">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="C14" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="2:3"/>
+    <row r="15" spans="1:3"/>
+    <row r="16" spans="1:3"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
+  <mergeCells count="2">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B2:C6"/>
   </mergeCells>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.31388888888888899" footer="0.31388888888888899"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>